--- a/org.openl.rules.mapping.dev.test/src/test/resources/org/openl/rules/mapping/customconverters/ConvertMethodUsageOrderTest.xlsx
+++ b/org.openl.rules.mapping.dev.test/src/test/resources/org/openl/rules/mapping/customconverters/ConvertMethodUsageOrderTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="24735" windowHeight="11955" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="24735" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>classA</t>
   </si>
@@ -99,16 +99,13 @@
   </si>
   <si>
     <t>convert</t>
-  </si>
-  <si>
-    <t>org.dozer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +247,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -328,6 +330,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -362,6 +365,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -537,14 +541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C7:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C7:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
@@ -553,13 +557,13 @@
     <col min="7" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
@@ -567,69 +571,83 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" s="11"/>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="11"/>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="7" t="s">
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="2" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="60" customHeight="1">
-      <c r="C15" s="3" t="s">
+    <row r="14" spans="3:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:8">
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>17</v>
       </c>
@@ -637,10 +655,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
@@ -649,31 +667,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="3:8">
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C12:H12"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -681,34 +679,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
